--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F104"/>
+  <dimension ref="A2:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,7 +1552,23 @@
       <c r="B104" t="n">
         <v>9.09126826874734</v>
       </c>
-      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9.09126826874734</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9.09126826874734</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F106"/>
+  <dimension ref="A2:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,7 +1568,39 @@
       <c r="B106" t="n">
         <v>9.09126826874734</v>
       </c>
-      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.09126826874734</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9.583557226454024</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9.09126826874734</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.974591905842381</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F110"/>
+  <dimension ref="A2:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,7 +1600,88 @@
       <c r="B110" t="n">
         <v>8.974591905842381</v>
       </c>
-      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8.308481844973947</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8.308481844973947</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8.308481844973947</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.08425404025794732</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.974591905842381</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4632327957854892</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8.974591905842381</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4646062144118369</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.107829945440615</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1754485456778251</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.039306644322307</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8160774729312702</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.898999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4042252753665664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F118"/>
+  <dimension ref="A2:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +1683,28 @@
         <v>0.4042252753665664</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.308481844973947</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1059356114599266</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>8</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.322771408860806</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.3873717642750341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F120"/>
+  <dimension ref="A2:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,17 @@
         <v>0.3873717642750341</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8.308481844973947</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.08341075188585434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F121"/>
+  <dimension ref="A2:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,6 +1716,54 @@
         <v>0.08341075188585434</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.763383278777008</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.7731790703382241</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.180976135634172</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.268070256694643</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.926779452053073</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.3077638353869067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F125"/>
+  <dimension ref="A2:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,6 +1764,50 @@
         <v>0.3077638353869067</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8.308481844973947</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.09829789459660115</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8.198678918888879</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.1435281692572995</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.211818732355612</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2752112211944635</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.686686396062282</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.2066984054168205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F129"/>
+  <dimension ref="A2:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +1808,61 @@
         <v>0.2066984054168205</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.402608871459961</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.6629390120506287</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8.299276351928711</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.7190195918083191</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.370575428009033</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.845501720905304</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.817458152770996</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.7813951969146729</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.899392127990723</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.54115903377533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/blankpythontester.xlsx
+++ b/Excel/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F134"/>
+  <dimension ref="A2:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1863,6 +1863,109 @@
         <v>1.54115903377533</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8.402608871459961</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.6585007309913635</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8.299276351928711</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.6668346524238586</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.370575428009033</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7268984317779541</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.817458152770996</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.6553414463996887</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>5</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.809852600097656</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.947826623916626</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>7</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.899392127990723</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5693364143371582</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>8</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.713088035583496</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6315563321113586</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>9</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.357122421264648</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6308620572090149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
